--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2975.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2975.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.199238217148477</v>
+        <v>1.711112380027771</v>
       </c>
       <c r="B1">
-        <v>2.530559785385321</v>
+        <v>2.797709226608276</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>3.054429531097412</v>
       </c>
       <c r="D1">
-        <v>2.243551485172939</v>
+        <v>3.443324089050293</v>
       </c>
       <c r="E1">
-        <v>1.189156061711877</v>
+        <v>1.898357033729553</v>
       </c>
     </row>
   </sheetData>
